--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.676215</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N2">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O2">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P2">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q2">
-        <v>34.68403833047722</v>
+        <v>17.99905065304889</v>
       </c>
       <c r="R2">
-        <v>312.156344974295</v>
+        <v>161.99145587744</v>
       </c>
       <c r="S2">
-        <v>0.4556169394345516</v>
+        <v>0.5781437586203719</v>
       </c>
       <c r="T2">
-        <v>0.53808222397892</v>
+        <v>0.6361500834303102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.676215</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P3">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q3">
         <v>4.677618759560001</v>
@@ -638,10 +638,10 @@
         <v>42.09856883604</v>
       </c>
       <c r="S3">
-        <v>0.06144619962548196</v>
+        <v>0.1502488182945965</v>
       </c>
       <c r="T3">
-        <v>0.07256777544435759</v>
+        <v>0.1653235840883211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>1.676215</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N4">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O4">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P4">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q4">
-        <v>0.2442554423544445</v>
+        <v>0.3064128469844445</v>
       </c>
       <c r="R4">
-        <v>2.19829898119</v>
+        <v>2.75771562286</v>
       </c>
       <c r="S4">
-        <v>0.003208591687778628</v>
+        <v>0.009842223262766795</v>
       </c>
       <c r="T4">
-        <v>0.003789337054374833</v>
+        <v>0.01082971329603179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>1.676215</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N5">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O5">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P5">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q5">
-        <v>35.00044505066084</v>
+        <v>3.400948601913333</v>
       </c>
       <c r="R5">
-        <v>210.002670303965</v>
+        <v>20.40569161148</v>
       </c>
       <c r="S5">
-        <v>0.4597733257265108</v>
+        <v>0.1092411619638289</v>
       </c>
       <c r="T5">
-        <v>0.3619939357246589</v>
+        <v>0.08013436480821218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,40 +794,350 @@
         <v>1.676215</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.06689266666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.200678</v>
+      </c>
+      <c r="O6">
+        <v>0.001414591508805173</v>
+      </c>
+      <c r="P6">
+        <v>0.001478007612330618</v>
+      </c>
+      <c r="Q6">
+        <v>0.03737549708555556</v>
+      </c>
+      <c r="R6">
+        <v>0.33637947377</v>
+      </c>
+      <c r="S6">
+        <v>0.00120053056029861</v>
+      </c>
+      <c r="T6">
+        <v>0.001320982203314037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.199252</v>
+      </c>
+      <c r="I7">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J7">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.718766</v>
-      </c>
-      <c r="N6">
-        <v>8.156298</v>
-      </c>
-      <c r="O6">
-        <v>0.01995494352567695</v>
-      </c>
-      <c r="P6">
-        <v>0.0235667277976885</v>
-      </c>
-      <c r="Q6">
-        <v>1.519078783563333</v>
-      </c>
-      <c r="R6">
-        <v>13.67170905207</v>
-      </c>
-      <c r="S6">
-        <v>0.01995494352567695</v>
-      </c>
-      <c r="T6">
-        <v>0.0235667277976885</v>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>32.21373866666666</v>
+      </c>
+      <c r="N7">
+        <v>96.641216</v>
+      </c>
+      <c r="O7">
+        <v>0.6812298485843321</v>
+      </c>
+      <c r="P7">
+        <v>0.7117693664123</v>
+      </c>
+      <c r="Q7">
+        <v>3.209325928405333</v>
+      </c>
+      <c r="R7">
+        <v>19.255955570432</v>
+      </c>
+      <c r="S7">
+        <v>0.1030860899639602</v>
+      </c>
+      <c r="T7">
+        <v>0.07561928298198987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.199252</v>
+      </c>
+      <c r="I8">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J8">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.371752000000001</v>
+      </c>
+      <c r="N8">
+        <v>25.115256</v>
+      </c>
+      <c r="O8">
+        <v>0.1770389772624213</v>
+      </c>
+      <c r="P8">
+        <v>0.184975630381169</v>
+      </c>
+      <c r="Q8">
+        <v>0.8340441647520001</v>
+      </c>
+      <c r="R8">
+        <v>5.004264988512</v>
+      </c>
+      <c r="S8">
+        <v>0.02679015896782478</v>
+      </c>
+      <c r="T8">
+        <v>0.01965204629284796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.199252</v>
+      </c>
+      <c r="I9">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J9">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5484013333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.645204</v>
+      </c>
+      <c r="O9">
+        <v>0.01159714372603029</v>
+      </c>
+      <c r="P9">
+        <v>0.01211704340205096</v>
+      </c>
+      <c r="Q9">
+        <v>0.05463503123466667</v>
+      </c>
+      <c r="R9">
+        <v>0.327810187408</v>
+      </c>
+      <c r="S9">
+        <v>0.001754920463263492</v>
+      </c>
+      <c r="T9">
+        <v>0.001287330106019172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.199252</v>
+      </c>
+      <c r="I10">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J10">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.086836</v>
+      </c>
+      <c r="N10">
+        <v>12.173672</v>
+      </c>
+      <c r="O10">
+        <v>0.1287194389184112</v>
+      </c>
+      <c r="P10">
+        <v>0.08965995219214913</v>
+      </c>
+      <c r="Q10">
+        <v>0.606407123336</v>
+      </c>
+      <c r="R10">
+        <v>2.425628493344</v>
+      </c>
+      <c r="S10">
+        <v>0.01947827695458235</v>
+      </c>
+      <c r="T10">
+        <v>0.009525587383936961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.199252</v>
+      </c>
+      <c r="I11">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J11">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.06689266666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.200678</v>
+      </c>
+      <c r="O11">
+        <v>0.001414591508805173</v>
+      </c>
+      <c r="P11">
+        <v>0.001478007612330618</v>
+      </c>
+      <c r="Q11">
+        <v>0.006664248809333333</v>
+      </c>
+      <c r="R11">
+        <v>0.039985492856</v>
+      </c>
+      <c r="S11">
+        <v>0.0002140609485065627</v>
+      </c>
+      <c r="T11">
+        <v>0.0001570254090165811</v>
       </c>
     </row>
   </sheetData>
